--- a/Exportacion_Factura_desde_2025-09-12_hasta_2025-09-13.xlsx
+++ b/Exportacion_Factura_desde_2025-09-12_hasta_2025-09-13.xlsx
@@ -603,32 +603,32 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
@@ -785,32 +785,32 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
@@ -911,32 +911,32 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
@@ -1037,32 +1037,32 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
@@ -1163,32 +1163,32 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
